--- a/medicine/Psychotrope/Brauerei_Neunspringe_Worbis/Brauerei_Neunspringe_Worbis.xlsx
+++ b/medicine/Psychotrope/Brauerei_Neunspringe_Worbis/Brauerei_Neunspringe_Worbis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brauerei Neunspringe Worbis est une brasserie à Leinefelde-Worbis, dans le Land de Thuringe (Allemagne).
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1867, la production de bière commence dans la brasserie H. Carl Kuntze à Worbis[1]. Le nom change en brasserie Neunspringe. Le nom Neunspringe remonte à un ancien nom de domaine, qui dérive à son tour de neuf sources situées dans le cours supérieur de la Hahle, d'où la brasserie tire son eau de source[2]. Cependant, l'existence de neuf sources est controversée ; le nom pourrait remonter à une "nouvelle source".
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1867, la production de bière commence dans la brasserie H. Carl Kuntze à Worbis. Le nom change en brasserie Neunspringe. Le nom Neunspringe remonte à un ancien nom de domaine, qui dérive à son tour de neuf sources situées dans le cours supérieur de la Hahle, d'où la brasserie tire son eau de source. Cependant, l'existence de neuf sources est controversée ; le nom pourrait remonter à une "nouvelle source".
 Après le décès du fondateur de l'entreprise Carl Kuntze en 1895, ses fils Karl et Thilo reprennent l'entreprise. La bière est vendue dans tout Eichsfeld et une succursale est initialement fondée à Duderstadt, à côté du site de Worbis. Des sites de vente suivent dans les régions voisines, notamment à Saint-Andreasberg, Bleicherode, Nordhausen, Mühlhausen et Kelbra. Avant la Première Guerre mondiale, la bière de Neunspringe est livrée à Hannoversch Münden, Cassel, Eisenach et Erfurt.
 La Première Guerre mondiale et ses conséquences limitent la production de bière. En 1929, le volume de production de 1,6 million d'hectolitres en Thuringe ne représente que 80% du niveau d'avant-guerre. La Neunspringer Brauerei est touchée. Dans les années 1930, l'entreprise commence à mettre en bouteille, des camions sont achetés et le 9 stylisé, resté presque inchangé jusqu'à ce jour, est introduit comme logo de l'entreprise. Ces innovations permettent aux ventes de l'entreprise de se stabiliser après la crise économique mondiale. Pendant la Seconde Guerre mondiale, l'entreprise est contrainte de brasser de la bière sans alcool en raison du manque de matières premières. Karl Kuntze Jr., fils de Thilo Kuntze et successeur désigné des frères Kuntze qui dirigeaient l'entreprise, meurt pendant la guerre.
 Après la fin de la guerre, l’entreprise de Worbis se trouve dans la zone d'occupation soviétique en Allemagne. Néanmoins, la production peut se poursuivre sans problème dans l'usine, qui ne fut pas endommagée. Cependant, les succursales de Duderstadt, Herzberg et St. Andreasberg se trouvent désormais au-delà des frontières de la zone et le marché de vente en dessous d'Eichsfeld et l'ouest du Harz s'effondre. Le houblon, que l'entreprise s'approvisionnait auparavant dans le Hallertau en Bavière, devient une matière première rare, jusqu'à ce que le houblon commence à être cultivé à Eichsfeld. En 1948, l'entreprise familiale est transférée aux filles de Thilo Kuntze. La pénurie persistante de matières premières conduit à la production de la Malzbier Neunspringer Doppelcaramel, très populaire en RDA. Le 1er décembre 1953, l'entreprise est définitivement expropriée par le régime de la RDA et la brasserie est déclarée propriété publique. La famille d'entrepreneurs fuit la RDA et s'installe dans l'ancienne succursale de l'entreprise à Duderstadt.
@@ -550,7 +564,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bières
 À l'époque de la RDA et jusqu'à l'arrêt de la production en 2009, la bière Neunspringer était traditionnellement proposée en bouteilles Steinieform de 0,33 litre. Après la suppression de ce produit, la Neunspringer Brauerei passe à une bouteille de 0,33 litre portant le logo Neunspringer, créée individuellement pour l'entreprise et produite à l'étranger. La bière Neunspringer est également proposée en bouteilles réutilisables standards de 0,5 litre. La gamme comprend les variétés suivantes :
